--- a/DNDC 对比.xlsx
+++ b/DNDC 对比.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86189\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A69088-6D8C-48F9-BC44-0CB7CE3FF1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62F77F7-40F4-4C1D-9C4C-C073B6E4040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,37 +363,37 @@
                   <c:v>-1.3799999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5200000000000001E-3</c:v>
+                  <c:v>-1.49E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.6100000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.7799999999999999E-3</c:v>
+                  <c:v>-1.74E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1.2800000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.41E-3</c:v>
+                  <c:v>-1.3799999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-4.6800000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.1399999999999996E-3</c:v>
+                  <c:v>-5.0400000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-3.3400000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.6600000000000001E-3</c:v>
+                  <c:v>-3.5899999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-2.99E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.63E-3</c:v>
+                  <c:v>-3.5300000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,7 +954,7 @@
                   <c:v>1.1065999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9463E-2</c:v>
+                  <c:v>4.8611000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.8999999999999999E-5</c:v>
@@ -966,7 +966,7 @@
                   <c:v>1.0399999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1199999999999996E-3</c:v>
+                  <c:v>2.3210000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.4000000000000001E-5</c:v>
@@ -978,13 +978,13 @@
                   <c:v>7.1079999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8362000000000006E-2</c:v>
+                  <c:v>6.7904999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1199999999999999E-4</c:v>
+                  <c:v>3.4499999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2786,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2868,14 +2868,14 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>-1.5200000000000001E-3</v>
+        <v>-1.49E-3</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D13" si="0">H3*10000/(10000*24)</f>
         <v>9.9324465205003612E-2</v>
       </c>
       <c r="E3">
-        <v>4.9463E-2</v>
+        <v>4.8611000000000001E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F13" si="1">I3*10000/(10000*24)</f>
@@ -2924,7 +2924,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-1.7799999999999999E-3</v>
+        <v>-1.74E-3</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -2977,14 +2977,14 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-1.41E-3</v>
+        <v>-1.3799999999999999E-3</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>9.5332394082740482E-2</v>
       </c>
       <c r="E7">
-        <v>6.1199999999999996E-3</v>
+        <v>2.3210000000000001E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -3030,7 +3030,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-5.1399999999999996E-3</v>
+        <v>-5.0400000000000002E-3</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -3083,14 +3083,14 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-3.6600000000000001E-3</v>
+        <v>-3.5899999999999999E-3</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>8.2141202548305758E-2</v>
       </c>
       <c r="E11">
-        <v>6.8362000000000006E-2</v>
+        <v>6.7904999999999993E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -3136,14 +3136,14 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>-3.63E-3</v>
+        <v>-3.5300000000000002E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>6.1508269737043542E-2</v>
       </c>
       <c r="E13">
-        <v>3.1199999999999999E-4</v>
+        <v>3.4499999999999998E-4</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
